--- a/analysis/ts.xlsx
+++ b/analysis/ts.xlsx
@@ -491,19 +491,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" t="n">
         <v>147</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.361111111111111</v>
+        <v>1.484848484848485</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -553,19 +553,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
         <v>44</v>
@@ -593,10 +593,10 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.128205128205128</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.074074074074074</v>
+        <v>2.636363636363636</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.181818181818182</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -987,16 +987,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>5.5</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4.714285714285714</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
